--- a/input/static_data/cost/season_16/player_cost_GW7.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW7.xlsx
@@ -255,37 +255,37 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L5" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="6">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L13" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="14">
@@ -749,37 +749,37 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L18" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="19">
@@ -863,37 +863,37 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L21" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="22">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L24" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="25">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L26" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L31" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="32">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L34" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="35">
@@ -1851,37 +1851,37 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L47" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="48">
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L48" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="49">
@@ -1927,37 +1927,37 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L49" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="50">
@@ -1965,37 +1965,37 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L50" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="51">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L51" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="52">
@@ -2193,37 +2193,37 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L56" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="57">
@@ -2383,37 +2383,37 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L61" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="62">
@@ -2459,37 +2459,37 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L63" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="64">
@@ -2763,37 +2763,37 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L71" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="72">
@@ -2839,37 +2839,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L73" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="74">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L79" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L90" t="n">
-        <v>4800000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="91">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L93" t="n">
-        <v>5100000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L94" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="95">
@@ -3827,37 +3827,37 @@
         <v>98.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L99" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="100">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L104" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="105">
@@ -4055,37 +4055,37 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L106" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6100000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L111" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="112">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L117" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="118">
@@ -4549,37 +4549,37 @@
         <v>117.0</v>
       </c>
       <c r="B118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L118" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="119">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="123">
@@ -4777,37 +4777,37 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L124" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="125">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="129">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4100000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5271,37 +5271,37 @@
         <v>136.0</v>
       </c>
       <c r="B137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L137" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="138">
@@ -5803,37 +5803,37 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L151" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="152">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L157" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="158">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L159" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="160">
@@ -6145,37 +6145,37 @@
         <v>159.0</v>
       </c>
       <c r="B160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L160" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="161">
@@ -6183,37 +6183,37 @@
         <v>160.0</v>
       </c>
       <c r="B161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L161" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="162">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L162" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="163">
@@ -6259,37 +6259,37 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L163" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="164">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L167" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="168">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L171" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="172">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L178" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L179" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="180">
@@ -6905,37 +6905,37 @@
         <v>179.0</v>
       </c>
       <c r="B180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L180" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="181">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L184" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="185">
@@ -7095,37 +7095,37 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L185" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="186">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>5400000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L200" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="201">
@@ -7741,37 +7741,37 @@
         <v>201.0</v>
       </c>
       <c r="B202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L202" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="203">
@@ -7855,37 +7855,37 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L205" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="206">
@@ -8045,37 +8045,37 @@
         <v>209.0</v>
       </c>
       <c r="B210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L210" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="211">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L213" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="214">
@@ -8349,37 +8349,37 @@
         <v>217.0</v>
       </c>
       <c r="B218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L218" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="219">
@@ -8387,37 +8387,37 @@
         <v>218.0</v>
       </c>
       <c r="B219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L219" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="220">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L221" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="222">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L226" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="227">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L230" t="n">
-        <v>6300000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="231">
@@ -8919,37 +8919,37 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L233" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="234">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L238" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="239">
@@ -9223,37 +9223,37 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L241" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="242">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L242" t="n">
-        <v>4800000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="243">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L243" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="244">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L253" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="254">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L265" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L266" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="267">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L269" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="270">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L274" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L275" t="n">
-        <v>7100000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="276">
@@ -10591,37 +10591,37 @@
         <v>276.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L277" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="278">
@@ -10667,37 +10667,37 @@
         <v>278.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L279" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="280">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="C282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="D282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="E282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="F282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="G282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="H282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="I282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="J282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="K282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="L282" t="n">
-        <v>9600000.0</v>
+        <v>9500000.0</v>
       </c>
     </row>
     <row r="283">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L283" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="284">
@@ -10895,37 +10895,37 @@
         <v>284.0</v>
       </c>
       <c r="B285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L285" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="286">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L305" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="306">
@@ -11693,37 +11693,37 @@
         <v>305.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L306" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="307">
@@ -11769,37 +11769,37 @@
         <v>307.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L308" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="309">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L310" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="311">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L314" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="315">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L323" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12567,37 +12567,37 @@
         <v>328.0</v>
       </c>
       <c r="B329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L329" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="330">
@@ -12605,37 +12605,37 @@
         <v>329.0</v>
       </c>
       <c r="B330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L330" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="331">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="C331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="D331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="E331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="F331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="G331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="H331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="I331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="J331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="K331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="L331" t="n">
-        <v>1.01E7</v>
+        <v>9800000.0</v>
       </c>
     </row>
     <row r="332">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="337">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L338" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="339">
@@ -12947,37 +12947,37 @@
         <v>338.0</v>
       </c>
       <c r="B339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L339" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="340">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L341" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="342">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L342" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="343">
@@ -13175,37 +13175,37 @@
         <v>344.0</v>
       </c>
       <c r="B345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L345" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="346">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L348" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="349">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L350" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="351">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L351" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>6200000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13859,37 +13859,37 @@
         <v>362.0</v>
       </c>
       <c r="B363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L363" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="364">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7800000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14543,37 +14543,37 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L381" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="382">
@@ -14657,37 +14657,37 @@
         <v>383.0</v>
       </c>
       <c r="B384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L384" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="385">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="C387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="D387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="E387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="F387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="G387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="H387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="I387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="J387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="K387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="L387" t="n">
-        <v>9000000.0</v>
+        <v>9200000.0</v>
       </c>
     </row>
     <row r="388">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L394" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8700000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L396" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="397">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9100000.0</v>
+        <v>9000000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15341,37 +15341,37 @@
         <v>401.0</v>
       </c>
       <c r="B402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L402" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="403">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L403" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="404">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.08E7</v>
+        <v>1.06E7</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L410" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="411">
@@ -15683,37 +15683,37 @@
         <v>410.0</v>
       </c>
       <c r="B411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L411" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="412">
@@ -15759,37 +15759,37 @@
         <v>412.0</v>
       </c>
       <c r="B413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L413" t="n">
-        <v>5800000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="414">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L414" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="415">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="416">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>8000000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="417">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L425" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="429">
@@ -16709,37 +16709,37 @@
         <v>437.0</v>
       </c>
       <c r="B438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L438" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="439">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L446" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L447" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="448">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L450" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L452" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L456" t="n">
-        <v>5400000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L458" t="n">
-        <v>5600000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="459">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L461" t="n">
-        <v>4600000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="462">
@@ -17621,37 +17621,37 @@
         <v>461.0</v>
       </c>
       <c r="B462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L462" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="463">
@@ -17735,37 +17735,37 @@
         <v>464.0</v>
       </c>
       <c r="B465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L465" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="466">
@@ -17811,37 +17811,37 @@
         <v>466.0</v>
       </c>
       <c r="B467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L467" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="468">
@@ -17963,37 +17963,37 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L471" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L473" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L475" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="476">
@@ -18229,37 +18229,37 @@
         <v>477.0</v>
       </c>
       <c r="B478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L478" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="479">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L480" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="481">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L484" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8100000.0</v>
+        <v>8200000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L486" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="487">
@@ -18647,37 +18647,37 @@
         <v>488.0</v>
       </c>
       <c r="B489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L489" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="490">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7300000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="491">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L491" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="492">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>4900000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19027,37 +19027,37 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L499" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="500">
@@ -19065,37 +19065,37 @@
         <v>499.0</v>
       </c>
       <c r="B500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L500" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="501">
@@ -19103,37 +19103,37 @@
         <v>500.0</v>
       </c>
       <c r="B501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L501" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="502">
@@ -19217,37 +19217,37 @@
         <v>503.0</v>
       </c>
       <c r="B504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L504" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="505">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L508" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L510" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="511">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L513" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="514">
@@ -19597,37 +19597,37 @@
         <v>513.0</v>
       </c>
       <c r="B514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L514" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="515">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L518" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="519">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L520" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="521">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6800000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20053,37 +20053,37 @@
         <v>525.0</v>
       </c>
       <c r="B526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L526" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="527">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L527" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="528">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L531" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L534" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L537" t="n">
-        <v>5500000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="538">
@@ -20623,37 +20623,37 @@
         <v>540.0</v>
       </c>
       <c r="B541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="C541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="D541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="E541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="F541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="G541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="H541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="I541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="J541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="K541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="L541" t="n">
-        <v>7800000.0</v>
+        <v>8000000.0</v>
       </c>
     </row>
     <row r="542">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L547" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7400000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="550">
@@ -21003,37 +21003,37 @@
         <v>550.0</v>
       </c>
       <c r="B551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L551" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="552">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L554" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L557" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.05E7</v>
+        <v>1.01E7</v>
       </c>
     </row>
     <row r="559">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21573,37 +21573,37 @@
         <v>565.0</v>
       </c>
       <c r="B566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L566" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="567">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L568" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="569">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>6700000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="576">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="C577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="D577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="E577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="F577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="G577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="H577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="I577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="J577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="K577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
       <c r="L577" t="n">
-        <v>9600000.0</v>
+        <v>9700000.0</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22067,37 +22067,37 @@
         <v>578.0</v>
       </c>
       <c r="B579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L579" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="580">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22143,37 +22143,37 @@
         <v>580.0</v>
       </c>
       <c r="B581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L581" t="n">
-        <v>5000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="582">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.32E7</v>
+        <v>1.31E7</v>
       </c>
     </row>
     <row r="583">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.11E7</v>
+        <v>1.14E7</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="C585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="D585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="E585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="F585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="G585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="H585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="I585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="J585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="K585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="L585" t="n">
-        <v>9900000.0</v>
+        <v>9400000.0</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22561,37 +22561,37 @@
         <v>591.0</v>
       </c>
       <c r="B592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L592" t="n">
-        <v>8300000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="593">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6800000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L598" t="n">
-        <v>6000000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L606" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="607">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6100000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L611" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="612">
@@ -23321,37 +23321,37 @@
         <v>611.0</v>
       </c>
       <c r="B612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L612" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="613">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="C618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="D618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="E618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="F618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="G618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="H618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="I618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="J618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="K618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="L618" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
     </row>
     <row r="619">
@@ -23815,37 +23815,37 @@
         <v>624.0</v>
       </c>
       <c r="B625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L625" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="626">
@@ -23853,37 +23853,37 @@
         <v>625.0</v>
       </c>
       <c r="B626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L626" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
   </sheetData>
